--- a/teaching/traditional_assets/database/data/greece/greece_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_insurance_life.xlsx
@@ -591,124 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0475</v>
+        <v>0.0467</v>
       </c>
       <c r="E2">
-        <v>0.114</v>
-      </c>
-      <c r="F2">
-        <v>0.147</v>
+        <v>0.0984</v>
       </c>
       <c r="G2">
-        <v>0.08297132927888794</v>
+        <v>0.1088491898628999</v>
       </c>
       <c r="H2">
-        <v>0.08297132927888794</v>
+        <v>0.1088491898628999</v>
       </c>
       <c r="I2">
-        <v>0.1155516941789748</v>
+        <v>0.09056917324470296</v>
       </c>
       <c r="J2">
-        <v>0.08668557284067997</v>
+        <v>0.06896882617439548</v>
       </c>
       <c r="K2">
-        <v>19.9</v>
+        <v>17.3</v>
       </c>
       <c r="L2">
-        <v>0.08644656820156385</v>
+        <v>0.0718737017033652</v>
       </c>
       <c r="M2">
-        <v>4.1</v>
+        <v>10.63</v>
       </c>
       <c r="N2">
-        <v>0.02634961439588689</v>
+        <v>0.06796675191815855</v>
       </c>
       <c r="O2">
-        <v>0.2060301507537688</v>
+        <v>0.614450867052023</v>
       </c>
       <c r="P2">
-        <v>4.1</v>
+        <v>8.02</v>
       </c>
       <c r="Q2">
-        <v>0.02634961439588689</v>
+        <v>0.05127877237851662</v>
       </c>
       <c r="R2">
-        <v>0.2060301507537688</v>
+        <v>0.4635838150289017</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.2455315145813734</v>
       </c>
       <c r="U2">
-        <v>10.3</v>
+        <v>9.49</v>
       </c>
       <c r="V2">
-        <v>0.06619537275064268</v>
+        <v>0.06067774936061381</v>
       </c>
       <c r="W2">
-        <v>0.1486183719193428</v>
+        <v>0.1146454605699139</v>
       </c>
       <c r="X2">
-        <v>0.1141478816259236</v>
+        <v>0.08899879257416607</v>
       </c>
       <c r="Y2">
-        <v>0.03447049029341916</v>
+        <v>0.02564666799574779</v>
       </c>
       <c r="Z2">
-        <v>1.856900863112043</v>
+        <v>1.693043539424633</v>
       </c>
       <c r="AA2">
-        <v>0.1609665150272205</v>
+        <v>0.1167672255762608</v>
       </c>
       <c r="AB2">
-        <v>0.1134811647006318</v>
+        <v>0.08855629968098354</v>
       </c>
       <c r="AC2">
-        <v>0.04748535032658877</v>
+        <v>0.02821092589527724</v>
       </c>
       <c r="AD2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AG2">
-        <v>-8.73</v>
+        <v>-8.1</v>
       </c>
       <c r="AH2">
-        <v>0.00998918368645416</v>
+        <v>0.008809176753913428</v>
       </c>
       <c r="AI2">
-        <v>0.01029035852395622</v>
+        <v>0.008759216081668662</v>
       </c>
       <c r="AJ2">
-        <v>-0.05944032137264248</v>
+        <v>-0.05461901550910316</v>
       </c>
       <c r="AK2">
-        <v>-0.06136219863639558</v>
+        <v>-0.05428954423592493</v>
       </c>
       <c r="AL2">
-        <v>0.052</v>
+        <v>0.024</v>
       </c>
       <c r="AM2">
-        <v>0.052</v>
+        <v>0.024</v>
       </c>
       <c r="AN2">
-        <v>0.05567375886524823</v>
+        <v>0.0594017094017094</v>
       </c>
       <c r="AO2">
-        <v>511.5384615384616</v>
+        <v>908.3333333333334</v>
       </c>
       <c r="AP2">
-        <v>-0.3095744680851064</v>
+        <v>-0.3461538461538461</v>
       </c>
       <c r="AQ2">
-        <v>511.5384615384616</v>
+        <v>908.3333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0475</v>
+        <v>0.0467</v>
       </c>
       <c r="E3">
-        <v>0.114</v>
-      </c>
-      <c r="F3">
-        <v>0.147</v>
+        <v>0.0984</v>
       </c>
       <c r="G3">
-        <v>0.08297132927888794</v>
+        <v>0.1088491898628999</v>
       </c>
       <c r="H3">
-        <v>0.08297132927888794</v>
+        <v>0.1088491898628999</v>
       </c>
       <c r="I3">
-        <v>0.1155516941789748</v>
+        <v>0.09056917324470296</v>
       </c>
       <c r="J3">
-        <v>0.08668557284067997</v>
+        <v>0.06896882617439548</v>
       </c>
       <c r="K3">
-        <v>19.9</v>
+        <v>17.3</v>
       </c>
       <c r="L3">
-        <v>0.08644656820156385</v>
+        <v>0.0718737017033652</v>
       </c>
       <c r="M3">
-        <v>4.1</v>
+        <v>10.63</v>
       </c>
       <c r="N3">
-        <v>0.02634961439588689</v>
+        <v>0.06796675191815855</v>
       </c>
       <c r="O3">
-        <v>0.2060301507537688</v>
+        <v>0.614450867052023</v>
       </c>
       <c r="P3">
-        <v>4.1</v>
+        <v>8.02</v>
       </c>
       <c r="Q3">
-        <v>0.02634961439588689</v>
+        <v>0.05127877237851662</v>
       </c>
       <c r="R3">
-        <v>0.2060301507537688</v>
+        <v>0.4635838150289017</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.2455315145813734</v>
       </c>
       <c r="U3">
-        <v>10.3</v>
+        <v>9.49</v>
       </c>
       <c r="V3">
-        <v>0.06619537275064268</v>
+        <v>0.06067774936061381</v>
       </c>
       <c r="W3">
-        <v>0.1486183719193428</v>
+        <v>0.1146454605699139</v>
       </c>
       <c r="X3">
-        <v>0.1141478816259236</v>
+        <v>0.08899879257416607</v>
       </c>
       <c r="Y3">
-        <v>0.03447049029341916</v>
+        <v>0.02564666799574779</v>
       </c>
       <c r="Z3">
-        <v>1.856900863112043</v>
+        <v>1.693043539424633</v>
       </c>
       <c r="AA3">
-        <v>0.1609665150272205</v>
+        <v>0.1167672255762608</v>
       </c>
       <c r="AB3">
-        <v>0.1134811647006318</v>
+        <v>0.08855629968098354</v>
       </c>
       <c r="AC3">
-        <v>0.04748535032658877</v>
+        <v>0.02821092589527724</v>
       </c>
       <c r="AD3">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AG3">
-        <v>-8.73</v>
+        <v>-8.1</v>
       </c>
       <c r="AH3">
-        <v>0.00998918368645416</v>
+        <v>0.008809176753913428</v>
       </c>
       <c r="AI3">
-        <v>0.01029035852395622</v>
+        <v>0.008759216081668662</v>
       </c>
       <c r="AJ3">
-        <v>-0.05944032137264248</v>
+        <v>-0.05461901550910316</v>
       </c>
       <c r="AK3">
-        <v>-0.06136219863639558</v>
+        <v>-0.05428954423592493</v>
       </c>
       <c r="AL3">
-        <v>0.052</v>
+        <v>0.024</v>
       </c>
       <c r="AM3">
-        <v>0.052</v>
+        <v>0.024</v>
       </c>
       <c r="AN3">
-        <v>0.05567375886524823</v>
+        <v>0.0594017094017094</v>
       </c>
       <c r="AO3">
-        <v>511.5384615384616</v>
+        <v>908.3333333333334</v>
       </c>
       <c r="AP3">
-        <v>-0.3095744680851064</v>
+        <v>-0.3461538461538461</v>
       </c>
       <c r="AQ3">
-        <v>511.5384615384616</v>
+        <v>908.3333333333334</v>
       </c>
     </row>
   </sheetData>
